--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79860B6D-32E8-4895-AB26-2F8C772C5108}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773423A1-105C-4F82-978E-1DD5A9D928AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -125,6 +125,76 @@
   </si>
   <si>
     <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;管理员&gt;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;好友分组管理&gt;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;动态分享&gt;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;好友管理&gt;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用例描述（参与者为&lt;普通用户&gt;，功能模块为&lt;用户个人管理&gt;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第六周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第六周周四</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +226,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -200,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,17 +289,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -574,12 +656,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -668,26 +750,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -707,7 +789,7 @@
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -721,7 +803,7 @@
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -735,7 +817,7 @@
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -749,7 +831,7 @@
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -763,7 +845,7 @@
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -777,7 +859,7 @@
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -791,22 +873,218 @@
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773423A1-105C-4F82-978E-1DD5A9D928AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52261C-A9E7-4B1E-9330-DC0AB0BB5AD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>总结：</t>
   </si>
   <si>
     <t>日期：2018.10.08 第六周周一</t>
@@ -195,6 +192,50 @@
       </rPr>
       <t xml:space="preserve"> 第六周周四</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端通讯录功能界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端动态功能界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端个人功能界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端UI总体结构设计；app端地图界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端聊天界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App登录界面、注册界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：阅读完需求规格说明书后，觉得有些需求不大完善，与实际使用有些出入，所以经过小组讨论后，新增了一些实际需要的功能，例如聊天、动态分享、好友分组等，详细见用例设计文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：上一阶段用例设计过程出现了一些明显缺陷，例如用例名存在歧义、难以理解，功能实现过程缺少用例，出现多余用例的情况。此阶段小组成员对此进行重新讨论与修改，将有歧义的用例修正，删除多余不规范用例，添加必要用例。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此阶段小组编写用例规约，因为用例数量较多，所以小组成员在上一阶段修改完用例后就开始编写用例描述。注：本小组将用例描述与UI设计分成两阶段，先做用例规约，再进行UI设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -292,16 +333,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -656,12 +697,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -679,79 +720,79 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -764,12 +805,12 @@
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -787,91 +828,91 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
+      <c r="A19" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -884,12 +925,12 @@
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -907,79 +948,79 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>27</v>
+      <c r="A29" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -992,12 +1033,12 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1015,55 +1056,79 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>27</v>
+      <c r="A39" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52261C-A9E7-4B1E-9330-DC0AB0BB5AD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5778C8A5-402D-4CC7-92FA-9659B47BC1AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>1、重新讨论用例设计缺陷；2、修改用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户个人管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -219,14 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总结：阅读完需求规格说明书后，觉得有些需求不大完善，与实际使用有些出入，所以经过小组讨论后，新增了一些实际需要的功能，例如聊天、动态分享、好友分组等，详细见用例设计文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -236,6 +224,10 @@
   </si>
   <si>
     <t>总结：此阶段小组编写用例规约，因为用例数量较多，所以小组成员在上一阶段修改完用例后就开始编写用例描述。注：本小组将用例描述与UI设计分成两阶段，先做用例规约，再进行UI设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此阶段做了以上界面的设计初稿，以图片形式插入的UI设计文档中。由于时间关系，设计稿附属文字描述暂无，后边会补上。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +678,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -792,7 +784,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -912,7 +904,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -926,7 +918,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -951,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -963,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -975,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -987,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -999,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -1011,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -1020,7 +1012,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1034,7 +1026,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1059,10 +1051,10 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -1071,10 +1063,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -1083,10 +1075,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -1095,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -1107,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -1119,16 +1111,16 @@
         <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5778C8A5-402D-4CC7-92FA-9659B47BC1AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33624B-14A1-4774-9338-600C7E8AD0D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -228,6 +228,51 @@
   </si>
   <si>
     <t>总结：此阶段做了以上界面的设计初稿，以图片形式插入的UI设计文档中。由于时间关系，设计稿附属文字描述暂无，后边会补上。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第七周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端忘记密码功能界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端好友分组管理界面设计；App端好友搜索界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web端管理员端界面主体结构设计；Web端登录界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web端管理员端用户管理界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web端管理员端群组管理界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App端消息界面设计；App端群组管理界面设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -675,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1132,8 +1177,106 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A49:D50"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:D40"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33624B-14A1-4774-9338-600C7E8AD0D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36EDA70-CEDE-4DF3-8969-0A47684FF381}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>App端忘记密码功能界面设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -273,6 +269,14 @@
   </si>
   <si>
     <t>App端消息界面设计；App端群组管理界面设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：此阶段除了完成以上计划内容之外，小组成员还完成了群签到管理界面设计、群签到界面设计。同时，对之前的UI设计不合理的位置进行了更改，对用例规约进行修正，并将UI图置入用例规约说明书中。基本完成了UI设计，但有些细节处还未处理完全。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -370,17 +374,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +727,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -734,12 +738,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -828,26 +832,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -948,26 +952,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1056,26 +1060,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1164,26 +1168,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1204,9 +1208,11 @@
         <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,9 +1220,11 @@
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1224,9 +1232,11 @@
         <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1234,9 +1244,11 @@
         <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,9 +1256,11 @@
         <v>10</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,37 +1268,39 @@
         <v>11</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -254,9 +254,6 @@
     <t>1、熟悉数据库建模以及工具PowerDesigner的使用；2、根据用例用户群组管理，建立E-R图（包括逻辑数据模型和物理数据模型）</t>
   </si>
   <si>
-    <t>未完成</t>
-  </si>
-  <si>
     <t>1、熟悉数据库建模以及工具PowerDesigner的使用；2、根据用例管理员，建立E-R图（包括逻辑数据模型和物理数据模型）</t>
   </si>
   <si>
@@ -272,7 +269,7 @@
     <t>1、熟悉数据库建模以及工具PowerDesigner的使用；2、根据用例用户个人管理，建立E-R图（包括逻辑数据模型和物理数据模型）</t>
   </si>
   <si>
-    <t>总结：</t>
+    <t>总结：逻辑模型的关系理清、完全完成后才可以进行写物理模型；由于时间关系，物理模型还未整理关系</t>
   </si>
 </sst>
 </file>
@@ -280,27 +277,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,7 +307,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +323,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,21 +368,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,13 +407,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,15 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -431,35 +436,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -470,13 +452,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,169 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,21 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -709,31 +676,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,7 +685,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +719,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -784,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -942,14 +924,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1301,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1541,7 +1523,7 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1"/>
@@ -1649,7 +1631,7 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1"/>
@@ -1757,7 +1739,7 @@
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="1"/>
@@ -1865,7 +1847,7 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="1"/>
@@ -1894,7 +1876,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D53" s="5"/>
     </row>
@@ -1903,10 +1885,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="5" t="s">
         <v>54</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0.8</v>
       </c>
       <c r="D54" s="5"/>
     </row>
@@ -1915,10 +1897,10 @@
         <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D55" s="5"/>
     </row>
@@ -1927,10 +1909,10 @@
         <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D56" s="5"/>
     </row>
@@ -1939,10 +1921,10 @@
         <v>14</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D57" s="5"/>
     </row>
@@ -1951,16 +1933,16 @@
         <v>16</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18215" windowHeight="10464"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -271,6 +271,15 @@
   <si>
     <t>总结：逻辑模型的关系理清、完全完成后才可以进行写物理模型；由于时间关系，物理模型还未整理关系</t>
   </si>
+  <si>
+    <t>日期：2018.10.18 第七周周四</t>
+  </si>
+  <si>
+    <t>项目评审</t>
+  </si>
+  <si>
+    <t>总结：</t>
+  </si>
 </sst>
 </file>
 
@@ -278,8 +287,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -314,15 +323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +339,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,26 +406,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,16 +421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,16 +444,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,31 +467,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,145 +623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,11 +672,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +684,51 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,56 +757,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,127 +787,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,9 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1281,10 +1287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1887,8 +1893,8 @@
       <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="7">
-        <v>0.8</v>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D54" s="5"/>
     </row>
@@ -1954,20 +1960,130 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A69:D70"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B991434-C287-4FCF-9025-ADEBECB7ACD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D6A82-FFD5-4576-A1AC-5219D6EBE163}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -284,9 +284,6 @@
     <t>项目评审</t>
   </si>
   <si>
-    <t>总结：</t>
-  </si>
-  <si>
     <t>日期：2018.10.22 第八周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -307,10 +304,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、系统架构设计及开发工具确定；2、app聊天界面编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1、系统架构设计及开发工具确定；2、app通讯录界面编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -320,6 +313,75 @@
   </si>
   <si>
     <t>总结：数据库设计不够完善，如：欠缺一些表和表缺少一些属性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、系统架构设计及开发工具确定；2、app聊天消息界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第八周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app登录界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app注册界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app好友分组管理界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app用户详情界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app好友动态界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、版本管理配置；2、服务器后台环境搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：对github不熟悉，加上github拓机，所以只完成了创建了项目空间及个人关联，没能够小组全员关联上项目。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +413,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -395,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,20 +479,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -741,12 +818,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -835,26 +912,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -955,26 +1032,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1063,26 +1140,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1171,26 +1248,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1279,26 +1356,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1387,26 +1464,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1496,25 +1573,25 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="A71" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1531,97 +1608,207 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="9">
+        <v>0.5</v>
+      </c>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="3"/>
+      <c r="B74" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="3"/>
+      <c r="B75" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="3"/>
+      <c r="B76" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="3"/>
+      <c r="B77" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="3"/>
+      <c r="B78" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
+      <c r="A79" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A59:D60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A49:D50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D6A82-FFD5-4576-A1AC-5219D6EBE163}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6803E121-72F7-48D5-B0A0-6621096224A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="90">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -365,23 +365,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>app好友分组管理界面编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>app用户详情界面编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>app好友动态界面编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、版本管理配置；2、服务器后台环境搭建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：对github不熟悉，加上github拓机，所以只完成了创建了项目空间及个人关联，没能够小组全员关联上项目。</t>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：对github不熟悉，加上github宕机，所以只完成了创建了项目空间及个人关联，没能够小组全员关联上项目。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.25</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第八周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app密码重置界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app好友通知界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app群组创建界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app群组通知界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app好友通知详情界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app群组通知详情界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、理清服务器端逻辑与配置；2、mysql数据库表的创建；3、APP端项目逻辑结构搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、版本管理配置；2、服务器后台环境搭建；3、app界面模板编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：后台SSM框架已配置成功，由于小组内都对框架不了解，还需要花些时间理清一下逻辑、配置，为了节省时间，安排一个人负责服务端框架逻辑学习与构建，其他人负责App端UI界面编辑。预计本周五可以进行服务器端编码，下周可以进行app端逻辑编码。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app动态界面编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -482,11 +531,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,11 +543,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:D80"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -912,18 +961,18 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1032,18 +1081,18 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -1140,18 +1189,18 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -1248,18 +1297,18 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
@@ -1356,18 +1405,18 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
@@ -1464,18 +1513,18 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
@@ -1575,15 +1624,15 @@
       <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
@@ -1614,8 +1663,8 @@
       <c r="B73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="9">
-        <v>0.5</v>
+      <c r="C73" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -1681,20 +1730,20 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B81" s="7"/>
@@ -1720,9 +1769,11 @@
         <v>63</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,7 +1783,9 @@
       <c r="B84" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1740,9 +1793,11 @@
         <v>10</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,9 +1805,11 @@
         <v>12</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,9 +1817,11 @@
         <v>14</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C87" s="4"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,31 +1831,129 @@
       <c r="B88" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A71:D71"/>
+  <mergeCells count="20">
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A99:D100"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -1804,11 +1961,13 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A71:D71"/>
     <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A49:D50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6803E121-72F7-48D5-B0A0-6621096224A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FFABFC-9BEF-4CA4-9D2F-27CBD34987C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="99">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -431,6 +431,55 @@
   </si>
   <si>
     <t>app动态界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第九周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录api；2、注册api；3、查询用户api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api实现及api接口文档撰写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app通讯录界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app消息界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app地图界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app我的界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协作app通讯录界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：经过几天阅读demo和查询基本上已经可以实现api接口，统一返回json数据。由于先前没有撰写api接口文档，所以下周将进行api接口实现及文档撰写，为了与前端能够尽快实现交互，具体为每写一个api接口文档即实现该api，两者同步进行。此外，下周开始，app端进行逻辑实现。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -534,19 +583,19 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -867,12 +916,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -961,26 +1010,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1081,26 +1130,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1189,26 +1238,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1297,26 +1346,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1405,26 +1454,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1513,26 +1562,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1621,26 +1670,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1729,26 +1778,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -1837,26 +1886,26 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -1879,7 +1928,9 @@
       <c r="B93" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C93" s="5"/>
+      <c r="C93" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1889,7 +1940,9 @@
       <c r="B94" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,7 +1952,9 @@
       <c r="B95" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C95" s="4"/>
+      <c r="C95" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,7 +1964,9 @@
       <c r="B96" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1919,7 +1976,9 @@
       <c r="B97" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,30 +1988,127 @@
       <c r="B98" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A91:D91"/>
+  <mergeCells count="22">
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D110"/>
     <mergeCell ref="A99:D100"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
@@ -1968,6 +2124,11 @@
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A91:D91"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FFABFC-9BEF-4CA4-9D2F-27CBD34987C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="109">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -482,11 +476,64 @@
     <t>总结：经过几天阅读demo和查询基本上已经可以实现api接口，统一返回json数据。由于先前没有撰写api接口文档，所以下周将进行api接口实现及文档撰写，为了与前端能够尽快实现交互，具体为每写一个api接口文档即实现该api，两者同步进行。此外，下周开始，app端进行逻辑实现。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>日期：2018.10.31</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第九周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、更新用户信息api；2、查询所有用户api；3、注销用户账户api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app好友通知界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app群聊通知界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app动态界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app登录界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协作app动态界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：api文档已经有雏形了，经过app端调试确认可以与服务器进行通讯交互。此外，App端中的几个主页面已经进行编码。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,19 +630,22 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,29 +951,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -937,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -949,7 +999,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -961,7 +1011,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -973,7 +1023,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1035,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1047,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1009,29 +1059,29 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1045,7 +1095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1087,7 +1137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1101,7 +1151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1115,7 +1165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1129,29 +1179,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1227,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1189,7 +1239,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1201,7 +1251,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1213,7 +1263,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1225,7 +1275,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -1237,29 +1287,29 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -1285,7 +1335,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1347,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1359,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1371,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1383,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -1345,29 +1395,29 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1443,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1455,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1467,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1429,7 +1479,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1491,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1453,29 +1503,29 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1489,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +1551,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1513,7 +1563,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1525,7 +1575,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -1537,7 +1587,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1599,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -1561,29 +1611,29 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1597,7 +1647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1659,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1671,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1683,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
@@ -1645,7 +1695,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1657,7 +1707,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -1669,29 +1719,29 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>63</v>
       </c>
@@ -1717,7 +1767,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1729,7 +1779,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -1741,7 +1791,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
@@ -1753,7 +1803,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
@@ -1765,7 +1815,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -1777,29 +1827,29 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +1863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>63</v>
       </c>
@@ -1825,7 +1875,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +1887,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -1849,7 +1899,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
@@ -1861,7 +1911,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +1923,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -1885,29 +1935,29 @@
       </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1921,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>63</v>
       </c>
@@ -1933,7 +1983,7 @@
       </c>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -1945,7 +1995,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +2007,7 @@
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>12</v>
       </c>
@@ -1969,7 +2019,7 @@
       </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>14</v>
       </c>
@@ -1981,7 +2031,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -1993,29 +2043,29 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -2029,84 +2079,202 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C103" s="4"/>
+      <c r="C103" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D103" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="4"/>
+      <c r="C104" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C105" s="4"/>
+      <c r="C105" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="4"/>
+      <c r="C106" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C107" s="4"/>
+      <c r="C107" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="4"/>
+      <c r="C108" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A49:D50"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
     <mergeCell ref="A99:D100"/>
@@ -2123,12 +2291,6 @@
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A91:D91"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2137,12 +2299,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2151,12 +2313,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C9AB1-5EBC-469E-9DAE-6DC5291B8000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="126">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -526,14 +532,108 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：api文档已经有雏形了，经过app端调试确认可以与服务器进行通讯交互。此外，App端中的几个主页面已经进行编码。</t>
+    <r>
+      <t>日期：2018.11.1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第九周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查询用户数量api；2、冻结指定用户api；3、解封指定用户api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、添加好友api；2、删除好友api；3、创建群组api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app注册界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app我的历史动态界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app用户详情界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app群组详情界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app密码重置界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协作app用户详情界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协作app界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app动态发布界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app创建群组界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app用户个人信息界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：通讯录界面能正确调用并显示好友分组列表了。本次计划除了以上写明的内容之外，在周末时间，计划对前一段时间的代码分支进行重新整合修改，优化代码结构，剔除冗余代码块，在实现功能的前提下，尽量缩减代码量。对app端项目结构进一步构建。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：app端主界面采用碎片实现，地图界面定位功能已经实现，可以定位用户本身位置，并在地图上显示出来；同时，根据api获取后台数据库用户定位数据，在地图上进行标记点显示。经过真机测试，定位功能正常，地图功能正常，而由于虚拟机与百度地图api的不可知原因，百度地图定位在虚拟机上经常定位失败，会返回62错误码或167错误码。根据百度官方说明使用定位功能时需要使用真机进行调试，这算是一个坑了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：api文档已经有雏形了，经过app端调试代码块进行调试确认可以与服务器进行通讯交互。此外，App端中的几个主页面已经进行编码。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,6 +730,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,9 +746,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,9 +841,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,6 +893,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -951,29 +1085,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -987,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1133,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1145,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1157,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1169,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1181,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1059,29 +1193,29 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1095,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1151,7 +1285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1179,29 +1313,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1215,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1361,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1373,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1385,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1397,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1275,7 +1409,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -1287,29 +1421,29 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1469,7 @@
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1481,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1493,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1371,7 +1505,7 @@
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1383,7 +1517,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -1395,29 +1529,29 @@
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1431,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1577,7 @@
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1589,7 @@
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1601,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1479,7 +1613,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -1491,7 +1625,7 @@
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1503,29 +1637,29 @@
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1539,7 +1673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1685,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1563,7 +1697,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1709,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -1587,7 +1721,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
@@ -1599,7 +1733,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -1611,29 +1745,29 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="7" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -1659,7 +1793,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
@@ -1671,7 +1805,7 @@
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -1683,7 +1817,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
@@ -1695,7 +1829,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1707,7 +1841,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -1719,29 +1853,29 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>63</v>
       </c>
@@ -1767,7 +1901,7 @@
       </c>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +1913,7 @@
       </c>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -1791,7 +1925,7 @@
       </c>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1937,7 @@
       </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>14</v>
       </c>
@@ -1815,7 +1949,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -1827,29 +1961,29 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="6" t="s">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -1863,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>63</v>
       </c>
@@ -1875,7 +2009,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -1887,7 +2021,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>10</v>
       </c>
@@ -1899,7 +2033,7 @@
       </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
@@ -1911,7 +2045,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +2057,7 @@
       </c>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -1935,29 +2069,29 @@
       </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="6" t="s">
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +2105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>63</v>
       </c>
@@ -1983,7 +2117,7 @@
       </c>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
@@ -1995,7 +2129,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2141,7 @@
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>12</v>
       </c>
@@ -2019,7 +2153,7 @@
       </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2165,7 @@
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -2043,29 +2177,29 @@
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="6" t="s">
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -2079,7 +2213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>63</v>
       </c>
@@ -2093,19 +2227,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2251,7 @@
       </c>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>12</v>
       </c>
@@ -2129,7 +2263,7 @@
       </c>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>14</v>
       </c>
@@ -2141,7 +2275,7 @@
       </c>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
@@ -2153,29 +2287,29 @@
       </c>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="6" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -2189,91 +2323,308 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C113" s="4"/>
+      <c r="C113" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D113" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="4"/>
+      <c r="C114" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C115" s="4"/>
+      <c r="C115" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="4"/>
+      <c r="C116" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C117" s="4"/>
+      <c r="C117" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="4"/>
+      <c r="C118" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="8" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
+  <mergeCells count="28">
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
@@ -2290,6 +2641,13 @@
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
     <mergeCell ref="A71:D71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2299,12 +2657,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,12 +2671,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C9AB1-5EBC-469E-9DAE-6DC5291B8000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026E9BD-ACA8-457E-B1E5-06490140187D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="134">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -574,10 +574,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、添加好友api；2、删除好友api；3、创建群组api</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>app注册界面逻辑编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -627,6 +623,42 @@
   </si>
   <si>
     <t>总结：api文档已经有雏形了，经过app端调试代码块进行调试确认可以与服务器进行通讯交互。此外，App端中的几个主页面已经进行编码。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、添加好友api；2、删除好友api；3、socket编程实现好友聊天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：这两天重点在于实现好友私聊，查阅了有关socket、websocket、tcp、udp以及第三方IM-SDK的资料。想着与其调用第三方做好的IM系统还不如自己实现一个，即便效果是比不上这些成熟的IM，但毕竟可以学到的知识绝对比直接用第三方IM还要多得多。最终选定了socket来实现聊天功能，通过配置serversocket监听器，让serversocket跟随tomcat一起启动，由serversocket来转发用户间的聊天消息。在这个过程发现当tomcat关闭或重启后，原先的serversocket绑定的端口依然被占用，启动服务失败，调试了之后发现是由于serversocket线程无法跟随tomcat关闭而停止。所以又跑去复习了java线程相关知识，之后将serversocket线程设置为守护线程，当tomcat关闭时，没了前台线程，serversocket也会关闭，解除端口占用，再次启动时就可以正常启动了。由于采用了socket编程，就把用户的在线离线的状态交给了socket服务管理。当向离线用户发送消息时，socket服务将该消息保存到数据库，下次用户上线时再向用户推送离线消息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端和服务器端BUG修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app私聊界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app群聊通知详情界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app好友通知详情界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app搜索已添加好友/群组界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app各个分支整合，加上与服务器交互、网络线程，有一些bug需要查找和修复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -733,19 +765,19 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1100,12 +1132,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1194,26 +1226,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1314,26 +1346,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1422,26 +1454,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1530,26 +1562,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1638,26 +1670,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1746,26 +1778,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1854,26 +1886,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1962,26 +1994,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2070,26 +2102,26 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2178,26 +2210,26 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2288,26 +2320,26 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
+      <c r="A109" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2398,26 +2430,26 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
+      <c r="A119" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2452,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>111</v>
@@ -2464,7 +2496,7 @@
         <v>10</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>111</v>
@@ -2476,7 +2508,7 @@
         <v>12</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>111</v>
@@ -2488,10 +2520,10 @@
         <v>14</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="D127" s="3"/>
     </row>
@@ -2500,34 +2532,34 @@
         <v>16</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
+      <c r="A129" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2548,9 +2580,11 @@
         <v>63</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C133" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="D133" s="4" t="s">
         <v>92</v>
       </c>
@@ -2560,9 +2594,11 @@
         <v>8</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C134" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,9 +2606,11 @@
         <v>10</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C135" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="D135" s="3"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,9 +2618,11 @@
         <v>12</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C136" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2590,9 +2630,11 @@
         <v>14</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C137" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2600,35 +2642,135 @@
         <v>16</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C138" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
+  <mergeCells count="30">
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
     <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A51:D51"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -2636,19 +2778,19 @@
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A89:D90"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A51:D51"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A119:D120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026E9BD-ACA8-457E-B1E5-06490140187D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B192F5D-AB16-49FA-B77B-D0109A800316}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="135">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -659,6 +659,10 @@
   </si>
   <si>
     <t>app各个分支整合，加上与服务器交互、网络线程，有一些bug需要查找和修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端bug查找与协助修复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -765,9 +769,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -775,6 +776,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1120,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1132,12 +1136,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1226,26 +1230,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1346,26 +1350,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1454,26 +1458,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1562,26 +1566,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1670,26 +1674,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1778,26 +1782,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1889,23 +1893,23 @@
       <c r="A69" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1997,23 +2001,23 @@
       <c r="A79" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2105,23 +2109,23 @@
       <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2213,23 +2217,23 @@
       <c r="A99" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2323,23 +2327,23 @@
       <c r="A109" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2433,23 +2437,23 @@
       <c r="A119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2543,23 +2547,23 @@
       <c r="A129" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2653,23 +2657,23 @@
       <c r="A139" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -2741,7 +2745,9 @@
       <c r="A148" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="4"/>
+      <c r="B148" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="C148" s="4"/>
       <c r="D148" s="3"/>
     </row>
@@ -2749,18 +2755,35 @@
       <c r="A149" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
@@ -2771,26 +2794,9 @@
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A79:D80"/>
     <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A119:D120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B192F5D-AB16-49FA-B77B-D0109A800316}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF7BCB9-2729-4835-AF51-50A5EA60F136}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="144">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -663,6 +663,68 @@
   </si>
   <si>
     <t>app端bug查找与协助修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：修复了一些bug，socket网络访问数据读取延时与app界面显示的bug，服务端聊天代码结构重构优化代码执行效率等，目前已发现的bug都已经修复，还有潜藏着的还需要进一步测试再行修复。经过所有队伍的一个集中展示想法与开发进度，从中比较与我们这个小组的结构、风格、功能、进度等各方面的差异，觉得有一些不错的idea和功能是目前我们尚不具备的，比如加速开发、优化代码可读性的框架butterknife，当然，也从中挖掘一些其他小组没有的但我们可以加入的功能，比如作为一款防老人走失的app（项目指导书有这么一个场景），可以做字体大小改变、界面简洁化更加适合老人使用，此外，将app做成一款service常驻后台，防止老人误触关闭失去它应有的功能，同时，在地图定位功能上，可以做一个行走记录仪，这样也可以让家人随时查看老人的动向，去过哪里，即便走失了找回也更容易。第二点是安全问题，发现没有一个小组对消息进行加密，作为一款集成实时定位和社交服务的软件，必然要涉及不少用户隐私，加密我觉得必不可少。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端管理员端用户管理界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端编码协助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端好友分组管理界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端群组管理界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端搜索在线用户界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端设置界面逻辑编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -769,12 +831,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,6 +838,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1136,12 +1198,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1230,26 +1292,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1350,26 +1412,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1458,26 +1520,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1566,26 +1628,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1674,26 +1736,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1782,26 +1844,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1890,26 +1952,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1998,26 +2060,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2106,26 +2168,26 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2214,26 +2276,26 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2324,26 +2386,26 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2434,26 +2496,26 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2544,26 +2606,26 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2654,26 +2716,26 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
+      <c r="A141" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -2696,7 +2758,9 @@
       <c r="B143" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C143" s="4"/>
+      <c r="C143" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D143" s="4" t="s">
         <v>133</v>
       </c>
@@ -2708,7 +2772,9 @@
       <c r="B144" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C144" s="4"/>
+      <c r="C144" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,7 +2784,9 @@
       <c r="B145" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C145" s="4"/>
+      <c r="C145" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D145" s="3"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,7 +2796,9 @@
       <c r="B146" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="4"/>
+      <c r="C146" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D146" s="3"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2738,7 +2808,9 @@
       <c r="B147" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C147" s="4"/>
+      <c r="C147" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,42 +2820,125 @@
       <c r="B148" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C148" s="4"/>
+      <c r="C148" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A39:D40"/>
+  <mergeCells count="32">
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A159:D160"/>
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
@@ -2797,6 +2952,23 @@
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF7BCB9-2729-4835-AF51-50A5EA60F136}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D047ABBD-E00C-45E1-B74E-6109B6B5CCAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="153">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -725,6 +725,55 @@
   </si>
   <si>
     <t>app端设置界面逻辑编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：本此对app进一步功能完善，对websocket聊天功能代码进行了修改和优化。聊天功能上计划新增收发图片功能，下一次计划正式实施。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十一周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端新增好友功能、删除好友功能实现与接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端管理员端群组管理界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端移动好友分组功能实现与接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端创建好友分组功能实现与接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端删除好友分组功能实现与接口对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端群组界面协助编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +894,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2868,7 +2920,9 @@
       <c r="B153" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C153" s="4"/>
+      <c r="C153" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2878,7 +2932,9 @@
       <c r="B154" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C154" s="4"/>
+      <c r="C154" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,7 +2944,9 @@
       <c r="B155" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C155" s="4"/>
+      <c r="C155" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,7 +2956,9 @@
       <c r="B156" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C156" s="4"/>
+      <c r="C156" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -2908,7 +2968,9 @@
       <c r="B157" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C157" s="4"/>
+      <c r="C157" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2918,12 +2980,14 @@
       <c r="B158" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C158" s="4"/>
+      <c r="C158" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -2935,8 +2999,121 @@
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
     </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="4"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C168" s="4"/>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A151:D151"/>
     <mergeCell ref="A159:D160"/>
     <mergeCell ref="A49:D50"/>
@@ -2952,23 +3129,7 @@
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A39:D40"/>
     <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D047ABBD-E00C-45E1-B74E-6109B6B5CCAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEA2C91-760C-47E2-AE96-5137BA3E5951}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="162">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -774,6 +774,55 @@
   </si>
   <si>
     <t>web端群组界面协助编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.14</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十一周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：app端好友分组的创建、删除，移动好友所在分组功能均以实现对接，为了方便服务器管理数据与app端交互，对用户类进行了进一步封装，基于这层封装可以实现好友备注等功能。此外，对聊天功能进一步完善，用户间已经可以发送图片聊天，实现方式是将图片转base64编码，再以json格式包装。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端好友备注功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端群组创建及删除功能修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端群组创建及删除功能修改协作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端群组信息界面修改及与服务器交互逻辑修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端群组信息界面修改及与服务器交互逻辑修改协作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端BUG查找</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -829,7 +878,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -852,13 +901,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,6 +940,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1250,12 +1313,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1344,26 +1407,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1464,26 +1527,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1572,26 +1635,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1680,26 +1743,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1788,26 +1851,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1896,26 +1959,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2004,26 +2067,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2112,26 +2175,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2220,26 +2283,26 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2328,26 +2391,26 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2438,26 +2501,26 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2548,26 +2611,26 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2658,26 +2721,26 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2768,26 +2831,26 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -2878,26 +2941,26 @@
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -2986,26 +3049,26 @@
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -3028,7 +3091,9 @@
       <c r="B163" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C163" s="4"/>
+      <c r="C163" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3038,6 +3103,9 @@
       <c r="B164" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="C164" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="D164" s="3"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3047,17 +3115,21 @@
       <c r="B165" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="4"/>
+      <c r="C165" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="D165" s="3"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C166" s="4"/>
+      <c r="C166" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,7 +3139,9 @@
       <c r="B167" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C167" s="4"/>
+      <c r="C167" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3077,45 +3151,126 @@
       <c r="B168" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="4"/>
+      <c r="C168" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C174" s="4"/>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C178" s="4"/>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A159:D160"/>
+  <mergeCells count="36">
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
     <mergeCell ref="A49:D50"/>
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
@@ -3129,7 +3284,26 @@
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A159:D160"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEA2C91-760C-47E2-AE96-5137BA3E5951}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE441B4-2CBB-4021-AC46-17383E569595}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="171">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -822,7 +822,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>app端BUG查找</t>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：群组创建、删除、更改信息接口均已经经过修改加以实现，目前发现app端有不少bug，修复可能需要多花些时间。希望能尽快解决，把这个项目做到所能做到的最好状态。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.15</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十一周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建群组api；2、删除群组api；3、更新群组信息api；4、加入群组api；5、退出群组api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现地图点聚合功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、自定义加载视图组件；2、实现邮箱验证功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现聊天发送实时位置功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端测试与BUG查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端测试与BUG查找</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助地图点聚合功能实现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -943,6 +992,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,9 +1009,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1313,12 +1362,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1407,26 +1456,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1527,26 +1576,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1635,26 +1684,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1743,26 +1792,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1851,26 +1900,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1959,26 +2008,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2067,26 +2116,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2175,26 +2224,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2283,26 +2332,26 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2391,26 +2440,26 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2501,26 +2550,26 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2611,26 +2660,26 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2721,26 +2770,26 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2831,26 +2880,26 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
+      <c r="A139" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -2941,26 +2990,26 @@
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -3049,26 +3098,26 @@
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -3157,26 +3206,26 @@
       <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -3199,7 +3248,9 @@
       <c r="B173" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C173" s="4"/>
+      <c r="C173" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,7 +3260,9 @@
       <c r="B174" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C174" s="4"/>
+      <c r="C174" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D174" s="3"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,17 +3272,21 @@
       <c r="B175" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C175" s="4"/>
+      <c r="C175" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D175" s="3"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B176" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C176" s="4"/>
+      <c r="C176" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D176" s="3"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3239,7 +3296,9 @@
       <c r="B177" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C177" s="4"/>
+      <c r="C177" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,27 +3306,127 @@
         <v>16</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C178" s="4"/>
       <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C184" s="4"/>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C185" s="4"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C187" s="4"/>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C188" s="4"/>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
     <mergeCell ref="A111:D111"/>
     <mergeCell ref="A171:D171"/>
     <mergeCell ref="A179:D180"/>
@@ -3293,6 +3452,8 @@
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
     <mergeCell ref="A161:D161"/>
     <mergeCell ref="A169:D170"/>
     <mergeCell ref="A119:D120"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE441B4-2CBB-4021-AC46-17383E569595}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E813D74-98CA-4ECD-A1B0-FF81B61EED96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="180">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -802,10 +802,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>app端好友备注功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>app端群组创建及删除功能修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -872,6 +868,59 @@
   </si>
   <si>
     <t>协助地图点聚合功能实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.19</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十二周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、创建好友分组api；2、删除好友分组api；3、更改好友分组名api；4、移动好友所在分组api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、好友备注及修改备注api；2、app端好友备注功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：实现了服务器端几个群组功能的接口，以及app端地图点聚合功能。地图功能将会进一步的完善。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有事请假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图信息窗口界面优化及逻辑实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端设置界面编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端地图界面共享位置功能筛选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端地图界面Bug修复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1348,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3246,22 +3295,24 @@
         <v>63</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D173" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D174" s="3"/>
     </row>
@@ -3270,10 +3321,10 @@
         <v>10</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D175" s="3"/>
     </row>
@@ -3282,10 +3333,10 @@
         <v>12</v>
       </c>
       <c r="B176" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D176" s="3"/>
     </row>
@@ -3294,10 +3345,10 @@
         <v>14</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D177" s="3"/>
     </row>
@@ -3306,16 +3357,16 @@
         <v>16</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -3329,7 +3380,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -3354,9 +3405,11 @@
         <v>63</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C183" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D183" s="4" t="s">
         <v>92</v>
       </c>
@@ -3366,9 +3419,11 @@
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C184" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D184" s="3"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3376,9 +3431,11 @@
         <v>10</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C185" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D185" s="3"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3386,9 +3443,11 @@
         <v>12</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C186" s="4"/>
+        <v>167</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D186" s="3"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3396,9 +3455,11 @@
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C187" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,14 +3467,16 @@
         <v>16</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C188" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -3425,24 +3488,117 @@
       <c r="C190" s="12"/>
       <c r="D190" s="12"/>
     </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C198" s="4"/>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A99:D100"/>
+  <mergeCells count="40">
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A71:D71"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A89:D90"/>
     <mergeCell ref="A69:D70"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A159:D160"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -3452,10 +3608,11 @@
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A99:D100"/>
     <mergeCell ref="A119:D120"/>
     <mergeCell ref="A141:D141"/>
     <mergeCell ref="A149:D150"/>
@@ -3463,8 +3620,14 @@
     <mergeCell ref="A129:D130"/>
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E813D74-98CA-4ECD-A1B0-FF81B61EED96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142EAD2F-7FE0-4DC9-B136-3813F692BBD1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="189">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -916,11 +916,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>app端地图界面共享位置功能筛选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>app端地图界面Bug修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十二周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、好友申请通知api；2、同意好友申请api；3、获取好友申请通知api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：由于开发经验不足，感觉每走一步都有不一样的问题，特别是数据库与实际开发编码后产生的冲突，尤其觉得前期数据库设计的不够好，造成编码阶段难度增大，所以对数据库进行了一些没有大范围影响后台编码情况下的小改造，另外就是与服务器的交互方面还需要进一步完善。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成&lt;地图信息窗口界面优化及逻辑实现&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端用户个人信息更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究app主题及字体更换方案及实现方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端地图界面共享位置功能界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app聊天共享位置的实现方案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app端群组功能实现上由bug，进行修复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1044,19 +1093,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1411,12 +1460,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1505,26 +1554,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1625,26 +1674,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1733,26 +1782,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1841,26 +1890,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1949,26 +1998,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2057,26 +2106,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2165,26 +2214,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2273,26 +2322,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2381,26 +2430,26 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2489,26 +2538,26 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2599,26 +2648,26 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2709,26 +2758,26 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2819,26 +2868,26 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2929,26 +2978,26 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -3039,26 +3088,26 @@
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -3147,26 +3196,26 @@
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -3255,26 +3304,26 @@
       <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -3365,26 +3414,26 @@
       <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
+      <c r="A179" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -3475,26 +3524,26 @@
       <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -3517,7 +3566,9 @@
       <c r="B193" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C193" s="4"/>
+      <c r="C193" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="D193" s="4" t="s">
         <v>92</v>
       </c>
@@ -3529,7 +3580,9 @@
       <c r="B194" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C194" s="4"/>
+      <c r="C194" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="D194" s="3"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,7 +3592,9 @@
       <c r="B195" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C195" s="4"/>
+      <c r="C195" s="5">
+        <v>0.5</v>
+      </c>
       <c r="D195" s="3"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,7 +3604,9 @@
       <c r="B196" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C196" s="4"/>
+      <c r="C196" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="D196" s="3"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,9 +3614,11 @@
         <v>14</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C197" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="D197" s="3"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3567,37 +3626,137 @@
         <v>16</v>
       </c>
       <c r="B198" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C204" s="4"/>
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C205" s="4"/>
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C206" s="4"/>
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C207" s="4"/>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C208" s="4"/>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A151:D151"/>
+  <mergeCells count="42">
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
     <mergeCell ref="A159:D160"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
@@ -3614,20 +3773,22 @@
     <mergeCell ref="A109:D110"/>
     <mergeCell ref="A99:D100"/>
     <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A151:D151"/>
     <mergeCell ref="A141:D141"/>
     <mergeCell ref="A149:D150"/>
     <mergeCell ref="A121:D121"/>
     <mergeCell ref="A129:D130"/>
     <mergeCell ref="A131:D131"/>
     <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D200"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142EAD2F-7FE0-4DC9-B136-3813F692BBD1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB0D8A5-2107-4AD0-AE54-757BF9EE856C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="197">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -970,6 +970,51 @@
   </si>
   <si>
     <t>app端群组功能实现上由bug，进行修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.26</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十三周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端登录界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、发布动态api；2、查询动态api；3、删除动态api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app通知更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app地图标记点更新方案实现与优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app地图标记点更新方案实现与优化协助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app动态功能与服务器对接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：发现群聊功能存在bug，在经过组员排查后，对会话管理类进行重新设计，完善群聊与私聊功能；第二，计划提供记录用户历史路线的功能，可供查询，若时间允许，会进行开发。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1093,19 +1138,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,9 +1491,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A209" sqref="A209:D210"/>
     </sheetView>
   </sheetViews>
@@ -1460,12 +1505,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1554,26 +1599,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1674,26 +1719,26 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1782,26 +1827,26 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1890,26 +1935,26 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1998,26 +2043,26 @@
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2106,26 +2151,26 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2214,26 +2259,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2322,26 +2367,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2430,26 +2475,26 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2538,26 +2583,26 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2648,26 +2693,26 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2758,26 +2803,26 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2868,26 +2913,26 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -2978,26 +3023,26 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -3088,26 +3133,26 @@
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -3196,26 +3241,26 @@
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -3304,26 +3349,26 @@
       <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -3414,26 +3459,26 @@
       <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -3524,26 +3569,26 @@
       <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="13" t="s">
+      <c r="A189" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="12" t="s">
+      <c r="A191" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -3634,26 +3679,26 @@
       <c r="D198" s="3"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="13" t="s">
+      <c r="A199" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="12" t="s">
+      <c r="A201" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -3732,32 +3777,143 @@
       <c r="D208" s="3"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="13" t="s">
+      <c r="A209" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="12"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C214" s="4"/>
+      <c r="D214" s="3"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="3"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C216" s="4"/>
+      <c r="D216" s="3"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C217" s="4"/>
+      <c r="D217" s="3"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C218" s="4"/>
+      <c r="D218" s="3"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="12"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A209:D210"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D200"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="A159:D160"/>
+  <mergeCells count="44">
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -3767,28 +3923,17 @@
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB0D8A5-2107-4AD0-AE54-757BF9EE856C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7D321E-7A7A-4E9D-9C5F-47817EB4B91B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="199">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -1015,6 +1015,27 @@
   </si>
   <si>
     <t>总结：发现群聊功能存在bug，在经过组员排查后，对会话管理类进行重新设计，完善群聊与私聊功能；第二，计划提供记录用户历史路线的功能，可供查询，若时间允许，会进行开发。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.28</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十三周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整合</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1491,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209:D210"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219:D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3888,32 +3909,106 @@
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
     </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C225" s="4"/>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C226" s="4"/>
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C227" s="4"/>
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C228" s="4"/>
+      <c r="D228" s="3"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A219:D220"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A109:D110"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
+  <mergeCells count="46">
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A229:D230"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -3923,6 +4018,30 @@
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A109:D110"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
     <mergeCell ref="A161:D161"/>
     <mergeCell ref="A169:D170"/>
     <mergeCell ref="A171:D171"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7D321E-7A7A-4E9D-9C5F-47817EB4B91B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400ACB3C-A280-44C7-9446-B648C3672D89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="204">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -1036,6 +1036,78 @@
   </si>
   <si>
     <t>项目整合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.29</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十三周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.12.3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十四周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.12.5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十四周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.12.6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十四周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目演示与bug调试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1512,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219:D220"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3742,7 +3814,9 @@
       <c r="B203" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C203" s="4"/>
+      <c r="C203" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D203" s="4" t="s">
         <v>92</v>
       </c>
@@ -3754,7 +3828,9 @@
       <c r="B204" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C204" s="4"/>
+      <c r="C204" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D204" s="3"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3764,7 +3840,9 @@
       <c r="B205" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C205" s="4"/>
+      <c r="C205" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D205" s="3"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3774,7 +3852,9 @@
       <c r="B206" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C206" s="4"/>
+      <c r="C206" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D206" s="3"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3784,7 +3864,9 @@
       <c r="B207" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C207" s="4"/>
+      <c r="C207" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3794,7 +3876,9 @@
       <c r="B208" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C208" s="4"/>
+      <c r="C208" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D208" s="3"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -3840,7 +3924,9 @@
       <c r="B213" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C213" s="4"/>
+      <c r="C213" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D213" s="4" t="s">
         <v>92</v>
       </c>
@@ -3852,7 +3938,9 @@
       <c r="B214" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C214" s="4"/>
+      <c r="C214" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D214" s="3"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,7 +3950,9 @@
       <c r="B215" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C215" s="4"/>
+      <c r="C215" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D215" s="3"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -3872,7 +3962,9 @@
       <c r="B216" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C216" s="4"/>
+      <c r="C216" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D216" s="3"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3882,7 +3974,9 @@
       <c r="B217" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C217" s="4"/>
+      <c r="C217" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -3892,7 +3986,9 @@
       <c r="B218" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C218" s="4"/>
+      <c r="C218" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -3938,7 +4034,9 @@
       <c r="B223" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C223" s="4"/>
+      <c r="C223" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -3948,7 +4046,9 @@
       <c r="B224" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C224" s="4"/>
+      <c r="C224" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D224" s="3"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -3958,7 +4058,9 @@
       <c r="B225" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C225" s="4"/>
+      <c r="C225" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D225" s="3"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -3968,7 +4070,9 @@
       <c r="B226" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C226" s="4"/>
+      <c r="C226" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D226" s="3"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,7 +4082,9 @@
       <c r="B227" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C227" s="4"/>
+      <c r="C227" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D227" s="3"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -3988,7 +4094,9 @@
       <c r="B228" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C228" s="4"/>
+      <c r="C228" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D228" s="3"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4005,8 +4113,406 @@
       <c r="C230" s="12"/>
       <c r="D230" s="12"/>
     </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D235" s="3"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D236" s="3"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D237" s="3"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D238" s="3"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B239" s="12"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="12"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="8"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="3"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="3"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B249" s="12"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="3"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="3"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" s="8"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="3"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="3"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B259" s="12"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="3"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="3"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="8"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="3"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="3"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="3"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B269" s="12"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="54">
+    <mergeCell ref="A259:D260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A269:D270"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A239:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A249:D250"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A69:D70"/>
     <mergeCell ref="A221:D221"/>
     <mergeCell ref="A229:D230"/>
     <mergeCell ref="A1:D1"/>
@@ -4023,36 +4529,6 @@
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
     <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A219:D220"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="A159:D160"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A209:D210"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D200"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A189:D190"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400ACB3C-A280-44C7-9446-B648C3672D89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990DB334-37B6-4995-99EA-D2B17A762891}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="209">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -1108,6 +1108,26 @@
   </si>
   <si>
     <t>项目演示与bug调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app地图路线记录功能实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端冻结用户功能实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端解封用户功能实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端冻结群组功能实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web端解封群组功能实现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1231,17 +1251,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1586,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D237" sqref="D237"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1598,12 +1618,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1692,26 +1712,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1815,23 +1835,23 @@
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1923,23 +1943,23 @@
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2031,23 +2051,23 @@
       <c r="A39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2139,23 +2159,23 @@
       <c r="A49" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2247,23 +2267,23 @@
       <c r="A59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2352,26 +2372,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2460,26 +2480,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2568,26 +2588,26 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2676,26 +2696,26 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2786,26 +2806,26 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2896,26 +2916,26 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -3006,26 +3026,26 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3116,26 +3136,26 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -3226,26 +3246,26 @@
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -3334,26 +3354,26 @@
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -3442,26 +3462,26 @@
       <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -3552,26 +3572,26 @@
       <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
+      <c r="A179" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -3662,26 +3682,26 @@
       <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="11" t="s">
+      <c r="A189" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -3772,26 +3792,26 @@
       <c r="D198" s="3"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
+      <c r="A199" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -3882,26 +3902,26 @@
       <c r="D208" s="3"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="11" t="s">
+      <c r="A209" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -3992,26 +4012,26 @@
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="11" t="s">
+      <c r="A219" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B219" s="12"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -4100,26 +4120,26 @@
       <c r="D228" s="3"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="11" t="s">
+      <c r="A229" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
@@ -4208,26 +4228,26 @@
       <c r="D238" s="3"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="11" t="s">
+      <c r="A239" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
+      <c r="A241" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B241" s="10"/>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10"/>
+      <c r="B241" s="12"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
@@ -4247,7 +4267,9 @@
       <c r="A243" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B243" s="4"/>
+      <c r="B243" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
     </row>
@@ -4255,7 +4277,9 @@
       <c r="A244" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B244" s="4"/>
+      <c r="B244" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="C244" s="4"/>
       <c r="D244" s="3"/>
     </row>
@@ -4263,7 +4287,9 @@
       <c r="A245" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B245" s="4"/>
+      <c r="B245" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="C245" s="4"/>
       <c r="D245" s="3"/>
     </row>
@@ -4271,7 +4297,9 @@
       <c r="A246" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B246" s="8"/>
+      <c r="B246" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="C246" s="4"/>
       <c r="D246" s="3"/>
     </row>
@@ -4279,7 +4307,9 @@
       <c r="A247" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B247" s="4"/>
+      <c r="B247" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="C247" s="4"/>
       <c r="D247" s="3"/>
     </row>
@@ -4287,31 +4317,33 @@
       <c r="A248" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B248" s="4"/>
+      <c r="B248" s="8" t="s">
+        <v>208</v>
+      </c>
       <c r="C248" s="4"/>
       <c r="D248" s="3"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="11" t="s">
+      <c r="A249" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B249" s="12"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="12"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="12"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B251" s="10"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
@@ -4376,26 +4408,26 @@
       <c r="D258" s="3"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="11" t="s">
+      <c r="A259" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B259" s="12"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="12"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B261" s="10"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
@@ -4460,59 +4492,21 @@
       <c r="D268" s="3"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="11" t="s">
+      <c r="A269" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="12"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="12"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="12"/>
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A259:D260"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A269:D270"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A239:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A249:D250"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A219:D220"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="A159:D160"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A209:D210"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D200"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A69:D70"/>
     <mergeCell ref="A221:D221"/>
     <mergeCell ref="A229:D230"/>
     <mergeCell ref="A1:D1"/>
@@ -4529,6 +4523,44 @@
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
     <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A259:D260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A269:D270"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A239:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A249:D250"/>
+    <mergeCell ref="A251:D251"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990DB334-37B6-4995-99EA-D2B17A762891}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60FA07A-5DBC-453D-BB2D-3704F1F00AB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="219">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -1111,10 +1111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>app地图路线记录功能实现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>web端冻结用户功能实现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1128,6 +1124,50 @@
   </si>
   <si>
     <t>web端解封群组功能实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图路线记录功能设计与开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友与群组功能测试及修改优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态功能测试及修改优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天功能调整修改及优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图路线记录功能设计与开发协助</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：编写了动态发布查询等一系列功能，app显示上不是特别好，后边有时间的话还需要进行一番修改。此外地图标记点方面，实现了更新功能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：将小组各个组员的分支代码进行合并，由于项目一直由github管理，所以整合相对顺利了不少。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：今天将项目进行演示了一遍，发现项目开发后比较普通，没有什么特别的亮点，对这个进行反思，决定添加一项可记录路线的功能，对于防老人走失场景应当十分有用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：这次开发主要在于web端，此前重心放在app上。本次在web管理员端实现了对于用户及群组的管理。地图路线功能一项，由于之前没有这个idea，所以开发起来进度相对慢。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1251,17 +1291,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1606,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259:D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1618,12 +1658,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1712,26 +1752,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1835,23 +1875,23 @@
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1943,23 +1983,23 @@
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2051,23 +2091,23 @@
       <c r="A39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2159,23 +2199,23 @@
       <c r="A49" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2267,23 +2307,23 @@
       <c r="A59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2372,26 +2412,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2480,26 +2520,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2588,26 +2628,26 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2696,26 +2736,26 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2806,26 +2846,26 @@
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2916,26 +2956,26 @@
       <c r="D118" s="3"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -3026,26 +3066,26 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3136,26 +3176,26 @@
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -3246,26 +3286,26 @@
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -3354,26 +3394,26 @@
       <c r="D158" s="3"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
+      <c r="A161" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -3462,26 +3502,26 @@
       <c r="D168" s="3"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -3572,26 +3612,26 @@
       <c r="D178" s="3"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B179" s="10"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -3682,26 +3722,26 @@
       <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B189" s="10"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="11" t="s">
+      <c r="A191" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -3792,26 +3832,26 @@
       <c r="D198" s="3"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B199" s="10"/>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="11" t="s">
+      <c r="A201" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B201" s="12"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -3902,26 +3942,26 @@
       <c r="D208" s="3"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B209" s="10"/>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
+      <c r="A210" s="12"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="11" t="s">
+      <c r="A211" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B211" s="12"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -4012,26 +4052,26 @@
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
+      <c r="A219" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
+      <c r="A220" s="12"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="11" t="s">
+      <c r="A221" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B221" s="12"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -4120,26 +4160,26 @@
       <c r="D228" s="3"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B229" s="10"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10"/>
+      <c r="A229" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="10"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="11" t="s">
+      <c r="A231" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
@@ -4228,26 +4268,26 @@
       <c r="D238" s="3"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B239" s="10"/>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
+      <c r="A239" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B239" s="12"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10"/>
+      <c r="A240" s="12"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="11" t="s">
+      <c r="A241" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
@@ -4268,9 +4308,11 @@
         <v>63</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C243" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="C243" s="5">
+        <v>0.3</v>
+      </c>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4278,9 +4320,11 @@
         <v>8</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C244" s="4"/>
+        <v>212</v>
+      </c>
+      <c r="C244" s="5">
+        <v>0.3</v>
+      </c>
       <c r="D244" s="3"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4288,9 +4332,11 @@
         <v>10</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C245" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="D245" s="3"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,9 +4344,11 @@
         <v>12</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C246" s="4"/>
+        <v>205</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="D246" s="3"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4308,9 +4356,11 @@
         <v>14</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C247" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="D247" s="3"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4318,32 +4368,34 @@
         <v>16</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C248" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>213</v>
+      </c>
       <c r="D248" s="3"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B249" s="10"/>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10"/>
+      <c r="A249" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B249" s="12"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10"/>
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="11" t="s">
+      <c r="A251" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B251" s="12"/>
-      <c r="C251" s="12"/>
-      <c r="D251" s="12"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
@@ -4363,71 +4415,95 @@
       <c r="A253" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
+      <c r="B253" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
+      <c r="B254" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="D254" s="3"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
+      <c r="B255" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="D255" s="3"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B256" s="8"/>
-      <c r="C256" s="4"/>
+      <c r="B256" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="D256" s="3"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
+      <c r="B257" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="D257" s="3"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
+      <c r="B258" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="D258" s="3"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B259" s="10"/>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="11" t="s">
+      <c r="A261" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B261" s="12"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
@@ -4492,21 +4568,59 @@
       <c r="D268" s="3"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="9" t="s">
+      <c r="A269" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B269" s="10"/>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="10"/>
-      <c r="B270" s="10"/>
-      <c r="C270" s="10"/>
-      <c r="D270" s="10"/>
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A259:D260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A269:D270"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A239:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A249:D250"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A69:D70"/>
     <mergeCell ref="A221:D221"/>
     <mergeCell ref="A229:D230"/>
     <mergeCell ref="A1:D1"/>
@@ -4523,44 +4637,6 @@
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
     <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A69:D70"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A219:D220"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="A159:D160"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A209:D210"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D200"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A259:D260"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A269:D270"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A239:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A249:D250"/>
-    <mergeCell ref="A251:D251"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第01组/01项目计划表.xlsx
+++ b/第01组/01项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目实训\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60FA07A-5DBC-453D-BB2D-3704F1F00AB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0103E0B2-0BF9-4F25-869F-DEAA7E7E74C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="222">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>日期：2018.10.2</t>
     </r>
@@ -1167,7 +1163,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整合与测试</t>
+  </si>
+  <si>
+    <t>项目整合与测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：成功将用户路线功能实现，可以做到将用户行走路线进行记录，并提供可查询功能，实现防止老人走失的想法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：项目即将告一段落，小组各成员提交各自分支，项目进行最终整合，并进行整体测试，在此基础上，对冗余代码块进行删减，优化项目结构，消灭发现的bug。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1291,17 +1302,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1646,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259:D260"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269:D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1658,12 +1669,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1752,26 +1763,26 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1875,23 +1886,23 @@
       <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1983,23 +1994,23 @@
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2091,23 +2102,23 @@
       <c r="A39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2199,23 +2210,23 @@
       <c r="A49" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2307,23 +2318,23 @@
       <c r="A59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2412,26 +2423,26 @@
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -2455,7 +2466,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73" s="3"/>
     </row>
@@ -2520,26 +2531,26 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+      <c r="A79" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="A81" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2560,10 +2571,10 @@
         <v>63</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" s="3"/>
     </row>
@@ -2572,10 +2583,10 @@
         <v>8</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D84" s="3"/>
     </row>
@@ -2584,10 +2595,10 @@
         <v>10</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D85" s="3"/>
     </row>
@@ -2596,10 +2607,10 @@
         <v>12</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D86" s="3"/>
     </row>
@@ -2608,10 +2619,10 @@
         <v>14</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D87" s="3"/>
     </row>
@@ -2620,34 +2631,34 @@
         <v>16</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
+      <c r="A89" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
+      <c r="A91" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2668,7 +2679,7 @@
         <v>63</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>71</v>
@@ -2680,7 +2691,7 @@
         <v>8</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>71</v>
@@ -2692,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>71</v>
@@ -2704,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>71</v>
@@ -2716,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>71</v>
@@ -2728,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>71</v>
@@ -2736,26 +2747,26 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
+      <c r="A99" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
+      <c r="A101" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2776,13 +2787,13 @@
         <v>63</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,10 +2801,10 @@
         <v>8</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="3"/>
     </row>
@@ -2802,10 +2813,10 @@
         <v>10</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D105" s="3"/>
     </row>
@@ -2814,10 +2825,10 @@
         <v>12</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D106" s="3"/>
     </row>
@@ -2826,10 +2837,10 @@
         <v>14</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D107" s="3"/>
     </row>
@@ -2838,34 +2849,34 @@
         <v>16</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
+      <c r="A109" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
+      <c r="A111" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2886,13 +2897,13 @@
         <v>63</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,10 +2911,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="3"/>
     </row>
@@ -2912,10 +2923,10 @@
         <v>10</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D115" s="3"/>
     </row>
@@ -2924,10 +2935,10 @@
         <v>12</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D116" s="3"/>
     </row>
@@ -2936,10 +2947,10 @@
         <v>14</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D117" s="3"/>
     </row>
@@ -2948,34 +2959,34 @@
         <v>16</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -2996,13 +3007,13 @@
         <v>63</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D123" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3010,10 +3021,10 @@
         <v>8</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D124" s="3"/>
     </row>
@@ -3022,10 +3033,10 @@
         <v>10</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D125" s="3"/>
     </row>
@@ -3034,10 +3045,10 @@
         <v>12</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D126" s="3"/>
     </row>
@@ -3046,7 +3057,7 @@
         <v>14</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>71</v>
@@ -3058,7 +3069,7 @@
         <v>16</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>71</v>
@@ -3066,26 +3077,26 @@
       <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="A129" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
+      <c r="A131" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -3106,13 +3117,13 @@
         <v>63</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,10 +3131,10 @@
         <v>8</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D134" s="3"/>
     </row>
@@ -3132,10 +3143,10 @@
         <v>10</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D135" s="3"/>
     </row>
@@ -3144,10 +3155,10 @@
         <v>12</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D136" s="3"/>
     </row>
@@ -3156,10 +3167,10 @@
         <v>14</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D137" s="3"/>
     </row>
@@ -3168,34 +3179,34 @@
         <v>16</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="A139" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" s="10"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
+      <c r="A141" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -3216,13 +3227,13 @@
         <v>63</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,7 +3241,7 @@
         <v>8</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>71</v>
@@ -3242,7 +3253,7 @@
         <v>10</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>71</v>
@@ -3254,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>71</v>
@@ -3266,7 +3277,7 @@
         <v>14</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>71</v>
@@ -3278,7 +3289,7 @@
         <v>16</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>71</v>
@@ -3286,26 +3297,26 @@
       <c r="D148" s="3"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
+      <c r="A149" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
+      <c r="A151" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -3326,10 +3337,10 @@
         <v>63</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D153" s="4"/>
     </row>
@@ -3338,10 +3349,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D154" s="3"/>
     </row>
@@ -3350,10 +3361,10 @@
         <v>10</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D155" s="3"/>
     </row>
@@ -3362,10 +3373,10 @@
         <v>12</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D156" s="3"/>
     </row>
@@ -3374,10 +3385,10 @@
         <v>14</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D157" s="3"/>
     </row>
@@ -3386,34 +3397,34 @@
         <v>16</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C158" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -3434,10 +3445,10 @@
         <v>63</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D163" s="4"/>
     </row>
@@ -3446,10 +3457,10 @@
         <v>8</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D164" s="3"/>
     </row>
@@ -3458,10 +3469,10 @@
         <v>10</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D165" s="3"/>
     </row>
@@ -3470,10 +3481,10 @@
         <v>12</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D166" s="3"/>
     </row>
@@ -3482,10 +3493,10 @@
         <v>14</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D167" s="3"/>
     </row>
@@ -3494,34 +3505,34 @@
         <v>16</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -3542,13 +3553,13 @@
         <v>63</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3556,10 +3567,10 @@
         <v>8</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D174" s="3"/>
     </row>
@@ -3568,10 +3579,10 @@
         <v>10</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D175" s="3"/>
     </row>
@@ -3580,10 +3591,10 @@
         <v>12</v>
       </c>
       <c r="B176" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D176" s="3"/>
     </row>
@@ -3592,10 +3603,10 @@
         <v>14</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D177" s="3"/>
     </row>
@@ -3604,34 +3615,34 @@
         <v>16</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C178" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -3652,13 +3663,13 @@
         <v>63</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3666,10 +3677,10 @@
         <v>8</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D184" s="3"/>
     </row>
@@ -3678,10 +3689,10 @@
         <v>10</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D185" s="3"/>
     </row>
@@ -3690,10 +3701,10 @@
         <v>12</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D186" s="3"/>
     </row>
@@ -3702,10 +3713,10 @@
         <v>14</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D187" s="3"/>
     </row>
@@ -3714,34 +3725,34 @@
         <v>16</v>
       </c>
       <c r="B188" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B191" s="10"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -3762,13 +3773,13 @@
         <v>63</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3776,10 +3787,10 @@
         <v>8</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D194" s="3"/>
     </row>
@@ -3788,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C195" s="5">
         <v>0.5</v>
@@ -3800,10 +3811,10 @@
         <v>12</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D196" s="3"/>
     </row>
@@ -3812,10 +3823,10 @@
         <v>14</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D197" s="3"/>
     </row>
@@ -3824,34 +3835,34 @@
         <v>16</v>
       </c>
       <c r="B198" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B201" s="10"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -3872,13 +3883,13 @@
         <v>63</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3886,7 +3897,7 @@
         <v>8</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>71</v>
@@ -3898,7 +3909,7 @@
         <v>10</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>71</v>
@@ -3910,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>71</v>
@@ -3922,7 +3933,7 @@
         <v>14</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>71</v>
@@ -3934,7 +3945,7 @@
         <v>16</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>71</v>
@@ -3942,26 +3953,26 @@
       <c r="D208" s="3"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
+      <c r="A209" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B211" s="10"/>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
+      <c r="A211" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -3982,13 +3993,13 @@
         <v>63</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,7 +4007,7 @@
         <v>8</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>71</v>
@@ -4008,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>71</v>
@@ -4020,7 +4031,7 @@
         <v>12</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>71</v>
@@ -4032,7 +4043,7 @@
         <v>14</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>71</v>
@@ -4044,7 +4055,7 @@
         <v>16</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>71</v>
@@ -4052,26 +4063,26 @@
       <c r="D218" s="3"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B219" s="12"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
+      <c r="A219" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B221" s="10"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
+      <c r="A221" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
@@ -4092,7 +4103,7 @@
         <v>63</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>71</v>
@@ -4104,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>71</v>
@@ -4116,7 +4127,7 @@
         <v>10</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>71</v>
@@ -4128,7 +4139,7 @@
         <v>12</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>71</v>
@@ -4140,7 +4151,7 @@
         <v>14</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>71</v>
@@ -4152,7 +4163,7 @@
         <v>16</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>71</v>
@@ -4160,26 +4171,26 @@
       <c r="D228" s="3"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
+      <c r="A229" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
+      <c r="A231" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
@@ -4200,7 +4211,7 @@
         <v>63</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>71</v>
@@ -4212,7 +4223,7 @@
         <v>8</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>71</v>
@@ -4224,7 +4235,7 @@
         <v>10</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>71</v>
@@ -4236,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>71</v>
@@ -4248,7 +4259,7 @@
         <v>14</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>71</v>
@@ -4260,7 +4271,7 @@
         <v>16</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>71</v>
@@ -4268,26 +4279,26 @@
       <c r="D238" s="3"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
+      <c r="A239" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B241" s="10"/>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10"/>
+      <c r="A241" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B241" s="12"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
@@ -4308,7 +4319,7 @@
         <v>63</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C243" s="5">
         <v>0.3</v>
@@ -4320,7 +4331,7 @@
         <v>8</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C244" s="5">
         <v>0.3</v>
@@ -4332,10 +4343,10 @@
         <v>10</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D245" s="3"/>
     </row>
@@ -4344,10 +4355,10 @@
         <v>12</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D246" s="3"/>
     </row>
@@ -4356,10 +4367,10 @@
         <v>14</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D247" s="3"/>
     </row>
@@ -4368,34 +4379,34 @@
         <v>16</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D248" s="3"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B249" s="12"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="12"/>
+      <c r="A249" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="12"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B251" s="10"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10"/>
+      <c r="A251" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B251" s="12"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
@@ -4416,10 +4427,10 @@
         <v>63</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>218</v>
+        <v>207</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D253" s="4"/>
     </row>
@@ -4428,10 +4439,10 @@
         <v>8</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="D254" s="3"/>
     </row>
@@ -4440,10 +4451,10 @@
         <v>10</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D255" s="3"/>
     </row>
@@ -4452,10 +4463,10 @@
         <v>12</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D256" s="3"/>
     </row>
@@ -4464,10 +4475,10 @@
         <v>14</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D257" s="3"/>
     </row>
@@ -4476,34 +4487,34 @@
         <v>16</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D258" s="3"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B259" s="12"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
+      <c r="A259" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="12"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B261" s="10"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
+      <c r="A261" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
@@ -4523,104 +4534,90 @@
       <c r="A263" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
+      <c r="B263" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D263" s="4"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
+      <c r="B264" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D264" s="3"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
+      <c r="B265" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D265" s="3"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B266" s="8"/>
-      <c r="C266" s="4"/>
+      <c r="B266" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D266" s="3"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
+      <c r="B267" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D267" s="3"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
+      <c r="B268" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="D268" s="3"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="12"/>
+      <c r="A269" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="12"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="12"/>
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A259:D260"/>
-    <mergeCell ref="A261:D261"/>
-    <mergeCell ref="A269:D270"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A239:D240"/>
-    <mergeCell ref="A241:D241"/>
-    <mergeCell ref="A249:D250"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="A219:D220"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A149:D150"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A169:D170"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="A179:D180"/>
-    <mergeCell ref="A159:D160"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="A209:D210"/>
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A199:D200"/>
-    <mergeCell ref="A181:D181"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A129:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A139:D140"/>
-    <mergeCell ref="A119:D120"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A69:D70"/>
     <mergeCell ref="A221:D221"/>
     <mergeCell ref="A229:D230"/>
     <mergeCell ref="A1:D1"/>
@@ -4637,6 +4634,44 @@
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="A109:D110"/>
     <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A69:D70"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A129:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A139:D140"/>
+    <mergeCell ref="A119:D120"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A219:D220"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A149:D150"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A169:D170"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A179:D180"/>
+    <mergeCell ref="A159:D160"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="A209:D210"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A199:D200"/>
+    <mergeCell ref="A181:D181"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="A259:D260"/>
+    <mergeCell ref="A261:D261"/>
+    <mergeCell ref="A269:D270"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A239:D240"/>
+    <mergeCell ref="A241:D241"/>
+    <mergeCell ref="A249:D250"/>
+    <mergeCell ref="A251:D251"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
